--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1143359.432483341</v>
+        <v>-1146208.854672669</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14366972.31025769</v>
+        <v>14366972.3102577</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>22.82764031881862</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>250.7644960777168</v>
       </c>
       <c r="H2" t="n">
-        <v>299.4834807853871</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>304.8572327112805</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.8620840704367</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>18.94475221673091</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>60.66188343657038</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>299.1614956098671</v>
+        <v>175.3494084597206</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65.03946560385178</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>102.5608233943721</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>96.78074638267616</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.8808320771212</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>205.6779548755953</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>16.93966244919596</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>254.0326278306816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>80.10107535865887</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>124.5931157466101</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>146.2378916327281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>16.09765778288657</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>33.84547402811469</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3557,10 +3557,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.9757468194221</v>
+        <v>1431.209329957786</v>
       </c>
       <c r="C2" t="n">
-        <v>509.9175242751608</v>
+        <v>1431.209329957786</v>
       </c>
       <c r="D2" t="n">
-        <v>509.9175242751608</v>
+        <v>1431.209329957786</v>
       </c>
       <c r="E2" t="n">
-        <v>509.9175242751608</v>
+        <v>1045.421077359542</v>
       </c>
       <c r="F2" t="n">
-        <v>509.9175242751608</v>
+        <v>634.4351725699341</v>
       </c>
       <c r="G2" t="n">
-        <v>509.9175242751608</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2170.577825292022</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1817.809170021908</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1817.809170021908</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1817.809170021908</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1542.271337979254</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1542.271337979254</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2446.806800512652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2446.806800512652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2446.806800512652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2446.806800512652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>2073.341042251573</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y5" t="n">
-        <v>2073.341042251573</v>
+        <v>1928.871178043375</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,37 +4656,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1200.239783601035</v>
+        <v>1250.979185313956</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.239783601035</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>569.4228831407838</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1122.236141386983</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1753.953952370295</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.474197132229</v>
+        <v>2363.813438909272</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.705541862115</v>
+        <v>2011.044783639158</v>
       </c>
       <c r="X8" t="n">
-        <v>1200.239783601035</v>
+        <v>1637.579025378078</v>
       </c>
       <c r="Y8" t="n">
-        <v>1200.239783601035</v>
+        <v>1637.579025378078</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>605.0955332381617</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="C10" t="n">
-        <v>436.1593503102548</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="D10" t="n">
-        <v>370.4629204073742</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>510.040998651502</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>510.040998651502</v>
       </c>
       <c r="X10" t="n">
-        <v>825.8881123816918</v>
+        <v>282.0514477534847</v>
       </c>
       <c r="Y10" t="n">
-        <v>605.0955332381617</v>
+        <v>178.4546564460382</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601761</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738542</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>738.5604932615184</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>590.6473996791253</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>443.7574521812149</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510509</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.054359575531</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432001</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854704</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085632</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1720.862466540123</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,7 +5777,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.9025067654818</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2321.111451512978</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2101.509986535919</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1812.434759880117</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1557.75027167423</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1268.333101637269</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1040.343550739252</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>819.5509715957215</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>620.8230468926974</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.670811801445</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1251.253641764485</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1023.264090866467</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.4715117229372</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851671</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>546.5917956728314</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>398.6787020904383</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>251.7887545925279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>110.076923434726</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1873.799971328619</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.115483122732</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1329.698313085771</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1101.708762187754</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.9161830442239</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7002,31 +7002,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7163,49 +7163,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7239,16 +7239,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803936</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516141</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793924</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033211</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,34 +7585,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797071</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819248</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580115</v>
@@ -7798,19 +7798,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>246.7442906384754</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>63.64207105006807</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>347.1032070028236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>306.1979795936941</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>342.4452514521889</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>22.89502575885438</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>110.3648512204699</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>40.6433062151476</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>46.45968844823273</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>128.4813855737353</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>65.31997266427237</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>56.4331702550345</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>68.49784254931393</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>105.8997516910999</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65.16817853567896</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>183.5599762991736</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.654232434377241e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1103301.335737777</v>
+        <v>1103301.335737778</v>
       </c>
     </row>
     <row r="3">
@@ -26326,7 +26326,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
@@ -26335,25 +26335,25 @@
         <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194636</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.3982194637</v>
-      </c>
       <c r="N2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127713.0035258957</v>
+        <v>127713.0035258958</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
@@ -26430,31 +26430,31 @@
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682769</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682771</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682748</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977629</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.3958297763</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977632</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-648213.03399896</v>
+        <v>-648573.1170146775</v>
       </c>
       <c r="C6" t="n">
         <v>-108047.0953069791</v>
       </c>
       <c r="D6" t="n">
-        <v>-263850.9014007739</v>
+        <v>-263850.901400774</v>
       </c>
       <c r="E6" t="n">
-        <v>-696244.7728411449</v>
+        <v>-696279.5107665805</v>
       </c>
       <c r="F6" t="n">
-        <v>74807.91853966167</v>
+        <v>74773.18061422577</v>
       </c>
       <c r="G6" t="n">
-        <v>74807.91853966152</v>
+        <v>74773.18061422574</v>
       </c>
       <c r="H6" t="n">
-        <v>74807.91853966145</v>
+        <v>74773.1806142258</v>
       </c>
       <c r="I6" t="n">
-        <v>74807.91853966156</v>
+        <v>74773.18061422586</v>
       </c>
       <c r="J6" t="n">
-        <v>-101615.3006529315</v>
+        <v>-101650.0385783672</v>
       </c>
       <c r="K6" t="n">
-        <v>74807.91853966155</v>
+        <v>74773.1806142258</v>
       </c>
       <c r="L6" t="n">
-        <v>48474.16854214019</v>
+        <v>48474.16854214031</v>
       </c>
       <c r="M6" t="n">
-        <v>-56306.62417228636</v>
+        <v>-56306.62417228649</v>
       </c>
       <c r="N6" t="n">
-        <v>67901.88653577209</v>
+        <v>67901.88653577204</v>
       </c>
       <c r="O6" t="n">
-        <v>67901.88653577192</v>
+        <v>67901.88653577201</v>
       </c>
       <c r="P6" t="n">
-        <v>67901.88653577196</v>
+        <v>67901.88653577189</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>163.0196739430782</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43929197897006</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25.82095755024631</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>197.5035681409269</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>85.77207920999879</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>1.885271837007195</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>28.59076286026777</v>
+        <v>152.4028500104143</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>83.57600741436057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>116.0238299577227</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30277,10 +30277,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302374</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32312,19 +32312,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>152.1871379112071</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,13 +32549,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>397.4049812900383</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817563</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>230.9747494877456</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>330.141416471397</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>259.9392557894442</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>547.7665824095557</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>467.3215277439574</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579301</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998968</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,19 +35960,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.34951124454042</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>222.5537898377871</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,22 +37382,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>259.5635423156793</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367757</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>97.00034207341533</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
